--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/nwr_sum-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/nwr_sum-raw-ss-lookup-tabbed-age.xlsx
@@ -370,7 +370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,15 +390,15 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>73</v>
@@ -406,295 +406,295 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -758,9 +758,17 @@
     </row>
     <row r="48">
       <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>130</v>
       </c>
     </row>
@@ -771,7 +779,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -791,378 +799,386 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>130</v>
+      <c r="B49">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1172,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1192,378 +1208,386 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>129</v>
+      <c r="B49">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1573,7 +1597,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1593,378 +1617,386 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>128</v>
+      <c r="B49">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1974,7 +2006,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1994,378 +2026,386 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>129</v>
+      <c r="B49">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2375,7 +2415,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2395,199 +2435,199 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>81</v>
@@ -2595,7 +2635,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>82</v>
@@ -2603,169 +2643,177 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>130</v>
       </c>
     </row>
@@ -2776,7 +2824,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2796,175 +2844,175 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>77</v>
@@ -2972,7 +3020,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>78</v>
@@ -2980,7 +3028,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>79</v>
@@ -2988,7 +3036,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>80</v>
@@ -2996,7 +3044,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>81</v>
@@ -3004,7 +3052,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>82</v>
@@ -3012,31 +3060,31 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>87</v>
@@ -3044,23 +3092,23 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>91</v>
@@ -3068,106 +3116,114 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>128</v>
+      <c r="B49">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3177,7 +3233,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3197,63 +3253,63 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>62</v>
@@ -3261,7 +3317,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>63</v>
@@ -3269,7 +3325,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>64</v>
@@ -3277,7 +3333,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>65</v>
@@ -3285,7 +3341,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>66</v>
@@ -3293,7 +3349,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>67</v>
@@ -3301,7 +3357,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>68</v>
@@ -3309,7 +3365,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>69</v>
@@ -3317,7 +3373,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>70</v>
@@ -3325,7 +3381,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>71</v>
@@ -3333,7 +3389,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>72</v>
@@ -3341,7 +3397,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>73</v>
@@ -3349,7 +3405,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>74</v>
@@ -3357,7 +3413,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>75</v>
@@ -3365,7 +3421,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>76</v>
@@ -3373,7 +3429,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>77</v>
@@ -3381,7 +3437,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>78</v>
@@ -3389,7 +3445,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>79</v>
@@ -3397,7 +3453,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>80</v>
@@ -3405,7 +3461,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>81</v>
@@ -3413,7 +3469,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>82</v>
@@ -3421,15 +3477,15 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>85</v>
@@ -3437,7 +3493,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>86</v>
@@ -3445,7 +3501,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>87</v>
@@ -3453,15 +3509,15 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>90</v>
@@ -3469,7 +3525,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>91</v>
@@ -3477,15 +3533,15 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>94</v>
@@ -3493,82 +3549,90 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>126</v>
+      <c r="B49">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3578,7 +3642,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3598,15 +3662,15 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>56</v>
@@ -3614,7 +3678,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>57</v>
@@ -3622,7 +3686,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>58</v>
@@ -3630,7 +3694,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>59</v>
@@ -3638,7 +3702,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>60</v>
@@ -3646,7 +3710,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>61</v>
@@ -3654,7 +3718,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>62</v>
@@ -3662,7 +3726,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>63</v>
@@ -3670,31 +3734,31 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>66</v>
@@ -3702,7 +3766,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>67</v>
@@ -3710,7 +3774,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>68</v>
@@ -3718,7 +3782,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>69</v>
@@ -3726,7 +3790,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>70</v>
@@ -3734,7 +3798,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>71</v>
@@ -3742,7 +3806,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>72</v>
@@ -3750,7 +3814,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>73</v>
@@ -3758,7 +3822,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>74</v>
@@ -3766,7 +3830,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>75</v>
@@ -3774,7 +3838,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>76</v>
@@ -3782,7 +3846,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>77</v>
@@ -3790,7 +3854,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>78</v>
@@ -3798,7 +3862,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>79</v>
@@ -3806,7 +3870,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>80</v>
@@ -3814,7 +3878,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>81</v>
@@ -3822,7 +3886,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>82</v>
@@ -3830,7 +3894,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>83</v>
@@ -3838,7 +3902,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>84</v>
@@ -3846,7 +3910,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>86</v>
@@ -3854,7 +3918,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>87</v>
@@ -3862,7 +3926,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>88</v>
@@ -3870,15 +3934,15 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>91</v>
@@ -3886,15 +3950,15 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>94</v>
@@ -3902,39 +3966,39 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>104</v>
@@ -3942,7 +4006,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>107</v>
@@ -3950,26 +4014,34 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>123</v>
+      <c r="B49">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3979,7 +4051,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3999,15 +4071,15 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>56</v>
@@ -4015,7 +4087,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>57</v>
@@ -4023,103 +4095,103 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>68</v>
@@ -4127,7 +4199,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>69</v>
@@ -4135,7 +4207,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>70</v>
@@ -4143,55 +4215,55 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>76</v>
@@ -4199,7 +4271,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>77</v>
@@ -4207,7 +4279,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>78</v>
@@ -4215,7 +4287,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>79</v>
@@ -4223,7 +4295,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>80</v>
@@ -4231,15 +4303,15 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>83</v>
@@ -4247,7 +4319,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>84</v>
@@ -4255,7 +4327,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>85</v>
@@ -4263,7 +4335,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>86</v>
@@ -4271,15 +4343,15 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>89</v>
@@ -4287,90 +4359,98 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>121</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4380,7 +4460,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4400,119 +4480,119 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>66</v>
@@ -4520,31 +4600,31 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>69</v>
@@ -4552,7 +4632,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>70</v>
@@ -4560,7 +4640,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>71</v>
@@ -4568,7 +4648,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>72</v>
@@ -4576,15 +4656,15 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>73</v>
@@ -4592,7 +4672,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>74</v>
@@ -4600,7 +4680,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>75</v>
@@ -4608,7 +4688,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>76</v>
@@ -4616,7 +4696,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>77</v>
@@ -4624,7 +4704,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>78</v>
@@ -4632,146 +4712,154 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>118</v>
+      <c r="B49">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4781,7 +4869,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4801,327 +4889,327 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -5129,7 +5217,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -5137,7 +5225,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -5145,7 +5233,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -5153,7 +5241,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -5161,7 +5249,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -5169,9 +5257,17 @@
     </row>
     <row r="48">
       <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>130</v>
       </c>
     </row>
@@ -5182,7 +5278,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5202,71 +5298,71 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>60</v>
@@ -5274,7 +5370,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>61</v>
@@ -5282,15 +5378,15 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>62</v>
@@ -5298,7 +5394,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>63</v>
@@ -5306,15 +5402,15 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>64</v>
@@ -5322,7 +5418,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>65</v>
@@ -5330,250 +5426,258 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>123</v>
+      <c r="B49">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -5583,7 +5687,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5603,63 +5707,63 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>78</v>
@@ -5667,247 +5771,247 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>125</v>
@@ -5915,7 +6019,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>127</v>
@@ -5923,15 +6027,15 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -5939,7 +6043,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -5947,7 +6051,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -5955,7 +6059,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -5963,7 +6067,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -5971,9 +6075,17 @@
     </row>
     <row r="48">
       <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>130</v>
       </c>
     </row>
@@ -5984,7 +6096,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6004,87 +6116,87 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>80</v>
@@ -6092,7 +6204,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>81</v>
@@ -6100,7 +6212,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>83</v>
@@ -6108,175 +6220,175 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>115</v>
@@ -6284,7 +6396,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>117</v>
@@ -6292,7 +6404,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>118</v>
@@ -6300,7 +6412,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>120</v>
@@ -6308,47 +6420,47 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -6356,7 +6468,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -6364,7 +6476,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -6372,9 +6484,17 @@
     </row>
     <row r="48">
       <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>130</v>
       </c>
     </row>
@@ -6385,7 +6505,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6405,111 +6525,111 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>82</v>
@@ -6517,15 +6637,15 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>85</v>
@@ -6533,7 +6653,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>86</v>
@@ -6541,7 +6661,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>88</v>
@@ -6549,7 +6669,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>89</v>
@@ -6557,7 +6677,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>90</v>
@@ -6565,7 +6685,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>92</v>
@@ -6573,7 +6693,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>93</v>
@@ -6581,15 +6701,15 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>96</v>
@@ -6597,15 +6717,15 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>99</v>
@@ -6613,7 +6733,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>100</v>
@@ -6621,7 +6741,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>102</v>
@@ -6629,7 +6749,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>103</v>
@@ -6637,7 +6757,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>105</v>
@@ -6645,7 +6765,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>106</v>
@@ -6653,15 +6773,15 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>109</v>
@@ -6669,103 +6789,103 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -6773,9 +6893,17 @@
     </row>
     <row r="48">
       <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>130</v>
       </c>
     </row>
@@ -6786,7 +6914,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6806,175 +6934,175 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>91</v>
@@ -6982,23 +7110,23 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>95</v>
@@ -7006,15 +7134,15 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>98</v>
@@ -7022,161 +7150,169 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>130</v>
       </c>
     </row>
@@ -7187,7 +7323,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7207,377 +7343,385 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>130</v>
       </c>
     </row>
@@ -7588,7 +7732,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7608,378 +7752,386 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>130</v>
+      <c r="B49">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -7989,7 +8141,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8009,378 +8161,386 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>130</v>
+      <c r="B49">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/nwr_sum-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/nwr_sum-raw-ss-lookup-tabbed-age.xlsx
@@ -393,7 +393,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
@@ -409,7 +409,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -417,7 +417,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -425,7 +425,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -433,7 +433,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
@@ -449,7 +449,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -457,7 +457,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
@@ -465,7 +465,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
@@ -473,7 +473,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
@@ -481,7 +481,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
@@ -489,7 +489,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
@@ -497,7 +497,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
@@ -505,7 +505,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
@@ -513,7 +513,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
@@ -521,7 +521,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19">
@@ -529,7 +529,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
@@ -537,7 +537,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21">
@@ -545,7 +545,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22">
@@ -553,7 +553,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23">
@@ -561,7 +561,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24">
@@ -569,7 +569,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -577,7 +577,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
@@ -585,7 +585,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28">
@@ -601,7 +601,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29">
@@ -609,7 +609,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
@@ -617,7 +617,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
@@ -625,7 +625,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32">
@@ -633,7 +633,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -641,7 +641,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -649,7 +649,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
@@ -657,7 +657,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
@@ -665,7 +665,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
@@ -673,7 +673,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38">
@@ -681,7 +681,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39">
@@ -689,7 +689,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40">
@@ -697,7 +697,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41">
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -810,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -826,7 +826,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
@@ -834,7 +834,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
@@ -842,7 +842,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -850,7 +850,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
@@ -858,7 +858,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -866,7 +866,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
@@ -874,7 +874,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -882,7 +882,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -890,7 +890,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -898,7 +898,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -906,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
@@ -914,7 +914,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
@@ -978,7 +978,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
@@ -986,7 +986,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26">
@@ -1010,7 +1010,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29">
@@ -1018,7 +1018,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30">
@@ -1034,7 +1034,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32">
@@ -1042,7 +1042,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33">
@@ -1058,7 +1058,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35">
@@ -1066,7 +1066,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
@@ -1082,7 +1082,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
@@ -1098,7 +1098,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
@@ -1106,7 +1106,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
@@ -1122,7 +1122,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43">
@@ -1130,7 +1130,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44">
@@ -1138,7 +1138,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45">
@@ -1170,7 +1170,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
@@ -1178,7 +1178,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -1227,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -1235,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -1243,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -1251,7 +1251,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -1259,7 +1259,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -1267,7 +1267,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -1275,7 +1275,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
@@ -1283,7 +1283,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -1291,7 +1291,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -1299,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
@@ -1323,7 +1323,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
@@ -1363,7 +1363,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
@@ -1371,7 +1371,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
@@ -1379,7 +1379,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
@@ -1403,7 +1403,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
@@ -1411,7 +1411,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
@@ -1419,7 +1419,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
@@ -1435,7 +1435,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31">
@@ -1443,7 +1443,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32">
@@ -1451,7 +1451,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
@@ -1459,7 +1459,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
@@ -1467,7 +1467,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35">
@@ -1475,7 +1475,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
@@ -1483,7 +1483,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
@@ -1491,7 +1491,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38">
@@ -1499,7 +1499,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39">
@@ -1507,7 +1507,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
@@ -1515,7 +1515,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41">
@@ -1523,7 +1523,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42">
@@ -1531,7 +1531,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43">
@@ -1539,7 +1539,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44">
@@ -1547,7 +1547,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45">
@@ -1555,7 +1555,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46">
@@ -1563,7 +1563,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47">
@@ -1571,7 +1571,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48">
@@ -1579,7 +1579,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49">
@@ -1587,7 +1587,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -1628,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -1636,7 +1636,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -1652,7 +1652,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -1660,7 +1660,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -1668,7 +1668,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1676,7 +1676,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -1684,7 +1684,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -1692,7 +1692,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -1732,7 +1732,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -1740,7 +1740,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
@@ -1748,7 +1748,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
@@ -1756,7 +1756,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
@@ -1772,7 +1772,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
@@ -1780,7 +1780,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
@@ -1788,7 +1788,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
@@ -1796,7 +1796,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
@@ -1804,7 +1804,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
@@ -1812,7 +1812,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
@@ -1820,7 +1820,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28">
@@ -1828,7 +1828,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
@@ -1844,7 +1844,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
@@ -1852,7 +1852,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
@@ -1860,7 +1860,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33">
@@ -1868,7 +1868,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
@@ -1876,7 +1876,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35">
@@ -1884,7 +1884,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36">
@@ -1892,7 +1892,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37">
@@ -1900,7 +1900,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38">
@@ -1908,7 +1908,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39">
@@ -1916,7 +1916,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40">
@@ -1924,7 +1924,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41">
@@ -1932,7 +1932,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42">
@@ -1940,7 +1940,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43">
@@ -1948,7 +1948,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44">
@@ -1956,7 +1956,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45">
@@ -1964,7 +1964,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46">
@@ -1972,7 +1972,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47">
@@ -1980,7 +1980,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48">
@@ -1988,7 +1988,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49">
@@ -1996,7 +1996,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -2037,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -2045,7 +2045,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -2053,7 +2053,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -2061,7 +2061,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -2117,7 +2117,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
@@ -2125,7 +2125,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -2133,7 +2133,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -2141,7 +2141,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
@@ -2149,7 +2149,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -2157,7 +2157,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
@@ -2165,7 +2165,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
@@ -2173,7 +2173,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
@@ -2181,7 +2181,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
@@ -2189,7 +2189,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
@@ -2197,7 +2197,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
@@ -2205,7 +2205,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
@@ -2213,7 +2213,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
@@ -2221,7 +2221,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
@@ -2229,7 +2229,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
@@ -2237,7 +2237,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
@@ -2245,7 +2245,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
@@ -2253,7 +2253,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
@@ -2261,7 +2261,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
@@ -2269,7 +2269,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33">
@@ -2277,7 +2277,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34">
@@ -2285,7 +2285,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
@@ -2293,7 +2293,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36">
@@ -2301,7 +2301,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37">
@@ -2309,7 +2309,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38">
@@ -2317,7 +2317,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39">
@@ -2325,7 +2325,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40">
@@ -2333,7 +2333,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41">
@@ -2341,7 +2341,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42">
@@ -2349,7 +2349,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43">
@@ -2357,7 +2357,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44">
@@ -2365,7 +2365,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45">
@@ -2373,7 +2373,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46">
@@ -2381,7 +2381,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47">
@@ -2389,7 +2389,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48">
@@ -2397,7 +2397,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49">
@@ -2405,7 +2405,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -2446,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -2470,7 +2470,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -2478,7 +2478,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -2486,7 +2486,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -2494,7 +2494,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -2502,7 +2502,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -2510,7 +2510,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
@@ -2518,7 +2518,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -2526,7 +2526,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -2534,7 +2534,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
@@ -2542,7 +2542,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16">
@@ -2550,7 +2550,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
@@ -2558,7 +2558,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18">
@@ -2566,7 +2566,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -2574,7 +2574,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
@@ -2582,7 +2582,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
@@ -2590,7 +2590,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
@@ -2598,7 +2598,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
@@ -2606,7 +2606,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
@@ -2614,7 +2614,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
@@ -2622,7 +2622,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
@@ -2630,7 +2630,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
@@ -2638,7 +2638,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
@@ -2654,7 +2654,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
@@ -2662,7 +2662,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
@@ -2670,7 +2670,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
@@ -2678,7 +2678,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33">
@@ -2686,7 +2686,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34">
@@ -2694,7 +2694,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35">
@@ -2702,7 +2702,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36">
@@ -2710,7 +2710,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37">
@@ -2718,7 +2718,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38">
@@ -2726,7 +2726,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39">
@@ -2734,7 +2734,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40">
@@ -2742,7 +2742,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41">
@@ -2750,7 +2750,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42">
@@ -2758,7 +2758,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43">
@@ -2766,7 +2766,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44">
@@ -2774,7 +2774,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45">
@@ -2782,7 +2782,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46">
@@ -2790,7 +2790,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47">
@@ -2798,7 +2798,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48">
@@ -2806,7 +2806,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49">
@@ -2814,7 +2814,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -2855,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -2863,7 +2863,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -2871,7 +2871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -2879,7 +2879,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -2887,7 +2887,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
@@ -2895,7 +2895,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
@@ -2903,7 +2903,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -2911,7 +2911,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -2919,7 +2919,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
@@ -2927,7 +2927,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
@@ -2935,7 +2935,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
@@ -2943,7 +2943,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -2951,7 +2951,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
@@ -2959,7 +2959,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
@@ -2967,7 +2967,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
@@ -2975,7 +2975,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
@@ -2983,7 +2983,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
@@ -2991,7 +2991,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
@@ -2999,7 +2999,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
@@ -3007,7 +3007,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
@@ -3015,7 +3015,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
@@ -3023,7 +3023,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
@@ -3031,7 +3031,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
@@ -3039,7 +3039,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
@@ -3047,7 +3047,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
@@ -3055,7 +3055,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
@@ -3063,7 +3063,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
@@ -3071,7 +3071,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
@@ -3079,7 +3079,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
@@ -3087,7 +3087,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
@@ -3095,7 +3095,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34">
@@ -3103,7 +3103,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35">
@@ -3111,7 +3111,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36">
@@ -3119,7 +3119,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
@@ -3127,7 +3127,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38">
@@ -3135,7 +3135,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39">
@@ -3143,7 +3143,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40">
@@ -3151,7 +3151,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41">
@@ -3159,7 +3159,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42">
@@ -3167,7 +3167,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43">
@@ -3175,7 +3175,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44">
@@ -3183,7 +3183,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45">
@@ -3191,7 +3191,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46">
@@ -3199,7 +3199,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47">
@@ -3207,7 +3207,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48">
@@ -3215,7 +3215,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49">
@@ -3223,7 +3223,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -3264,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -3272,7 +3272,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -3280,7 +3280,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -3288,7 +3288,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -3296,7 +3296,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -3304,7 +3304,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
@@ -3312,7 +3312,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -3320,7 +3320,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -3328,7 +3328,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
@@ -3336,7 +3336,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
@@ -3344,7 +3344,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
@@ -3352,7 +3352,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
@@ -3360,7 +3360,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
@@ -3368,7 +3368,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
@@ -3376,7 +3376,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
@@ -3384,7 +3384,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
@@ -3392,7 +3392,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20">
@@ -3400,7 +3400,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
@@ -3408,7 +3408,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22">
@@ -3416,7 +3416,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23">
@@ -3424,7 +3424,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
@@ -3432,7 +3432,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
@@ -3440,7 +3440,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
@@ -3448,7 +3448,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
@@ -3456,7 +3456,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
@@ -3464,7 +3464,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
@@ -3472,7 +3472,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
@@ -3480,7 +3480,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
@@ -3488,7 +3488,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
@@ -3496,7 +3496,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33">
@@ -3504,7 +3504,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
@@ -3512,7 +3512,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35">
@@ -3520,7 +3520,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36">
@@ -3528,7 +3528,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37">
@@ -3536,7 +3536,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38">
@@ -3544,7 +3544,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39">
@@ -3552,7 +3552,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40">
@@ -3560,7 +3560,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41">
@@ -3568,7 +3568,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42">
@@ -3576,7 +3576,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43">
@@ -3584,7 +3584,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
@@ -3592,7 +3592,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45">
@@ -3600,7 +3600,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46">
@@ -3608,7 +3608,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47">
@@ -3616,7 +3616,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48">
@@ -3624,7 +3624,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49">
@@ -3632,7 +3632,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -3673,7 +3673,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -3681,7 +3681,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -3689,7 +3689,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -3697,7 +3697,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
@@ -3705,7 +3705,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -3713,7 +3713,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -3721,7 +3721,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
@@ -3729,7 +3729,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -3737,7 +3737,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
@@ -3745,7 +3745,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -3753,7 +3753,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
@@ -3761,7 +3761,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
@@ -3769,7 +3769,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16">
@@ -3777,7 +3777,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
@@ -3785,7 +3785,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
@@ -3793,7 +3793,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
@@ -3801,7 +3801,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
@@ -3809,7 +3809,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21">
@@ -3817,7 +3817,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -3825,7 +3825,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
@@ -3833,7 +3833,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
@@ -3841,7 +3841,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
@@ -3849,7 +3849,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
@@ -3857,7 +3857,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
@@ -3865,7 +3865,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
@@ -3873,7 +3873,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
@@ -3881,7 +3881,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
@@ -3889,7 +3889,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
@@ -3897,7 +3897,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
@@ -3905,7 +3905,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33">
@@ -3913,7 +3913,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34">
@@ -3921,7 +3921,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
@@ -3929,7 +3929,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36">
@@ -3937,7 +3937,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37">
@@ -3945,7 +3945,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38">
@@ -3953,7 +3953,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39">
@@ -3961,7 +3961,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40">
@@ -3969,7 +3969,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41">
@@ -3977,7 +3977,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42">
@@ -3985,7 +3985,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43">
@@ -3993,7 +3993,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44">
@@ -4001,7 +4001,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45">
@@ -4009,7 +4009,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46">
@@ -4017,7 +4017,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47">
@@ -4025,7 +4025,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48">
@@ -4033,7 +4033,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49">
@@ -4041,7 +4041,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -4082,7 +4082,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -4090,7 +4090,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -4098,7 +4098,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -4106,7 +4106,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -4114,7 +4114,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -4122,7 +4122,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -4130,7 +4130,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -4138,7 +4138,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -4146,7 +4146,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
@@ -4154,7 +4154,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
@@ -4162,7 +4162,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -4170,7 +4170,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
@@ -4178,7 +4178,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16">
@@ -4186,7 +4186,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17">
@@ -4194,7 +4194,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
@@ -4202,7 +4202,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
@@ -4210,7 +4210,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20">
@@ -4218,7 +4218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -4226,7 +4226,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
@@ -4234,7 +4234,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -4242,7 +4242,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
@@ -4250,7 +4250,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
@@ -4258,7 +4258,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26">
@@ -4266,7 +4266,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
@@ -4274,7 +4274,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
@@ -4282,7 +4282,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
@@ -4290,7 +4290,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
@@ -4298,7 +4298,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
@@ -4306,7 +4306,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32">
@@ -4314,7 +4314,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
@@ -4322,7 +4322,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
@@ -4330,7 +4330,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35">
@@ -4338,7 +4338,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36">
@@ -4346,7 +4346,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37">
@@ -4354,7 +4354,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38">
@@ -4362,7 +4362,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -4370,7 +4370,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
@@ -4378,7 +4378,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41">
@@ -4386,7 +4386,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42">
@@ -4394,7 +4394,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43">
@@ -4402,7 +4402,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44">
@@ -4410,7 +4410,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45">
@@ -4418,7 +4418,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46">
@@ -4426,7 +4426,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47">
@@ -4434,7 +4434,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48">
@@ -4442,7 +4442,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49">
@@ -4450,7 +4450,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4483,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -4491,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -4499,7 +4499,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -4507,7 +4507,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -4515,7 +4515,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -4523,7 +4523,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -4531,7 +4531,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -4539,7 +4539,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -4547,7 +4547,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -4555,7 +4555,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -4563,7 +4563,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
@@ -4571,7 +4571,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -4579,7 +4579,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
@@ -4587,7 +4587,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -4595,7 +4595,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
@@ -4603,7 +4603,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -4611,7 +4611,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
@@ -4619,7 +4619,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
@@ -4627,7 +4627,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
@@ -4635,7 +4635,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
@@ -4643,7 +4643,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
@@ -4651,7 +4651,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
@@ -4659,7 +4659,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
@@ -4667,7 +4667,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
@@ -4675,7 +4675,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
@@ -4683,7 +4683,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28">
@@ -4691,7 +4691,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -4699,7 +4699,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30">
@@ -4707,7 +4707,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
@@ -4715,7 +4715,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
@@ -4723,7 +4723,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
@@ -4731,7 +4731,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
@@ -4739,7 +4739,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
@@ -4747,7 +4747,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
@@ -4755,7 +4755,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
@@ -4803,7 +4803,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43">
@@ -4811,7 +4811,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44">
@@ -4819,7 +4819,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45">
@@ -4843,7 +4843,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48">
@@ -4851,7 +4851,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49">
@@ -4859,7 +4859,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4892,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -4900,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -4908,7 +4908,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -4924,7 +4924,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -4932,7 +4932,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -4940,7 +4940,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -4948,7 +4948,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -4956,7 +4956,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
@@ -4964,7 +4964,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
@@ -4972,7 +4972,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -4980,7 +4980,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
@@ -4988,7 +4988,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -4996,7 +4996,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
@@ -5004,7 +5004,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -5012,7 +5012,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
@@ -5020,7 +5020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -5028,7 +5028,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
@@ -5036,7 +5036,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
@@ -5044,7 +5044,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
@@ -5052,7 +5052,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
@@ -5060,7 +5060,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
@@ -5068,7 +5068,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
@@ -5076,7 +5076,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26">
@@ -5084,7 +5084,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
@@ -5092,7 +5092,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28">
@@ -5100,7 +5100,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29">
@@ -5108,7 +5108,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
@@ -5116,7 +5116,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31">
@@ -5124,7 +5124,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -5132,7 +5132,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
@@ -5140,7 +5140,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
@@ -5148,7 +5148,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
@@ -5156,7 +5156,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
@@ -5164,7 +5164,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37">
@@ -5172,7 +5172,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38">
@@ -5180,7 +5180,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
@@ -5188,7 +5188,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40">
@@ -5196,7 +5196,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41">
@@ -5204,7 +5204,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42">
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -5309,7 +5309,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -5317,7 +5317,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -5325,7 +5325,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -5333,7 +5333,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -5341,7 +5341,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -5349,7 +5349,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -5357,7 +5357,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
@@ -5365,7 +5365,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
@@ -5373,7 +5373,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
@@ -5381,7 +5381,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
@@ -5389,7 +5389,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -5397,7 +5397,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
@@ -5405,7 +5405,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
@@ -5413,7 +5413,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
@@ -5421,7 +5421,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
@@ -5429,7 +5429,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -5437,7 +5437,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
@@ -5445,7 +5445,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
@@ -5453,7 +5453,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
@@ -5461,7 +5461,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23">
@@ -5469,7 +5469,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
@@ -5477,7 +5477,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25">
@@ -5485,7 +5485,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26">
@@ -5493,7 +5493,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27">
@@ -5501,7 +5501,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
@@ -5509,7 +5509,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29">
@@ -5517,7 +5517,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30">
@@ -5525,7 +5525,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31">
@@ -5533,7 +5533,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32">
@@ -5549,7 +5549,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -5557,7 +5557,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
@@ -5565,7 +5565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
@@ -5573,7 +5573,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
@@ -5581,7 +5581,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38">
@@ -5589,7 +5589,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39">
@@ -5597,7 +5597,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
@@ -5605,7 +5605,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41">
@@ -5613,7 +5613,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42">
@@ -5621,7 +5621,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43">
@@ -5629,7 +5629,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44">
@@ -5637,7 +5637,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45">
@@ -5645,7 +5645,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46">
@@ -5653,7 +5653,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47">
@@ -5661,7 +5661,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48">
@@ -5669,7 +5669,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49">
@@ -5677,7 +5677,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -5718,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -5726,7 +5726,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -5734,7 +5734,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -5742,7 +5742,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -5750,7 +5750,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -5766,7 +5766,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -5774,7 +5774,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -5782,7 +5782,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
@@ -5790,7 +5790,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
@@ -5798,7 +5798,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
@@ -5806,7 +5806,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
@@ -5814,7 +5814,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
@@ -5822,7 +5822,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
@@ -5830,7 +5830,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
@@ -5838,7 +5838,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
@@ -5846,7 +5846,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
@@ -5854,7 +5854,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
@@ -5862,7 +5862,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
@@ -5870,7 +5870,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
@@ -5878,7 +5878,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
@@ -5886,7 +5886,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -5894,7 +5894,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26">
@@ -5902,7 +5902,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27">
@@ -5910,7 +5910,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -5918,7 +5918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
@@ -5926,7 +5926,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30">
@@ -5934,7 +5934,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31">
@@ -5942,7 +5942,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32">
@@ -5950,7 +5950,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33">
@@ -5958,7 +5958,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
@@ -5966,7 +5966,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35">
@@ -5974,7 +5974,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36">
@@ -5982,7 +5982,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37">
@@ -5990,7 +5990,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38">
@@ -5998,7 +5998,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39">
@@ -6006,7 +6006,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
@@ -6014,7 +6014,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41">
@@ -6022,7 +6022,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
@@ -6030,7 +6030,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43">
@@ -6038,7 +6038,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44">
@@ -6119,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -6127,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -6135,7 +6135,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -6143,7 +6143,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -6151,7 +6151,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -6159,7 +6159,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
@@ -6167,7 +6167,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
@@ -6175,7 +6175,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -6191,7 +6191,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -6199,7 +6199,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -6207,7 +6207,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
@@ -6215,7 +6215,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
@@ -6223,7 +6223,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
@@ -6231,7 +6231,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
@@ -6239,7 +6239,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
@@ -6247,7 +6247,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
@@ -6255,7 +6255,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
@@ -6263,7 +6263,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
@@ -6271,7 +6271,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -6279,7 +6279,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
@@ -6287,7 +6287,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24">
@@ -6295,7 +6295,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
@@ -6303,7 +6303,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
@@ -6311,7 +6311,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
@@ -6319,7 +6319,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28">
@@ -6327,7 +6327,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29">
@@ -6335,7 +6335,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30">
@@ -6343,7 +6343,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31">
@@ -6351,7 +6351,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32">
@@ -6359,7 +6359,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
@@ -6367,7 +6367,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34">
@@ -6375,7 +6375,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35">
@@ -6383,7 +6383,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36">
@@ -6391,7 +6391,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37">
@@ -6399,7 +6399,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38">
@@ -6407,7 +6407,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39">
@@ -6415,7 +6415,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40">
@@ -6423,7 +6423,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
@@ -6431,7 +6431,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42">
@@ -6439,7 +6439,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43">
@@ -6447,7 +6447,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44">
@@ -6528,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -6536,7 +6536,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -6544,7 +6544,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -6552,7 +6552,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -6560,7 +6560,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -6568,7 +6568,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
@@ -6576,7 +6576,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -6584,7 +6584,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -6592,7 +6592,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
@@ -6600,7 +6600,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
@@ -6624,7 +6624,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
@@ -6632,7 +6632,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
@@ -6640,7 +6640,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -6648,7 +6648,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -6656,7 +6656,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
@@ -6664,7 +6664,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -6672,7 +6672,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
@@ -6680,7 +6680,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
@@ -6688,7 +6688,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
@@ -6696,7 +6696,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
@@ -6704,7 +6704,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
@@ -6712,7 +6712,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26">
@@ -6720,7 +6720,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27">
@@ -6728,7 +6728,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28">
@@ -6736,7 +6736,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29">
@@ -6744,7 +6744,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30">
@@ -6752,7 +6752,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -6760,7 +6760,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
@@ -6768,7 +6768,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
@@ -6784,7 +6784,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
@@ -6792,7 +6792,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36">
@@ -6800,7 +6800,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37">
@@ -6808,7 +6808,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38">
@@ -6816,7 +6816,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39">
@@ -6824,7 +6824,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40">
@@ -6832,7 +6832,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41">
@@ -6840,7 +6840,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42">
@@ -6848,7 +6848,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43">
@@ -6872,7 +6872,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
@@ -6880,7 +6880,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47">
@@ -6937,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -6945,7 +6945,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -6953,7 +6953,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -6961,7 +6961,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -6969,7 +6969,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -6977,7 +6977,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -6985,7 +6985,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -6993,7 +6993,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -7001,7 +7001,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -7009,7 +7009,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
@@ -7017,7 +7017,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
@@ -7025,7 +7025,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -7033,7 +7033,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -7049,7 +7049,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -7057,7 +7057,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
@@ -7065,7 +7065,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
@@ -7073,7 +7073,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
@@ -7081,7 +7081,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -7089,7 +7089,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
@@ -7097,7 +7097,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
@@ -7105,7 +7105,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
@@ -7113,7 +7113,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
@@ -7121,7 +7121,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26">
@@ -7129,7 +7129,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27">
@@ -7137,7 +7137,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28">
@@ -7145,7 +7145,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29">
@@ -7153,7 +7153,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30">
@@ -7161,7 +7161,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
@@ -7169,7 +7169,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32">
@@ -7177,7 +7177,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33">
@@ -7185,7 +7185,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34">
@@ -7193,7 +7193,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35">
@@ -7201,7 +7201,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36">
@@ -7209,7 +7209,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37">
@@ -7217,7 +7217,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38">
@@ -7225,7 +7225,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39">
@@ -7233,7 +7233,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40">
@@ -7241,7 +7241,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41">
@@ -7249,7 +7249,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42">
@@ -7281,7 +7281,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46">
@@ -7289,7 +7289,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47">
@@ -7297,7 +7297,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
@@ -7346,7 +7346,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -7354,7 +7354,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -7362,7 +7362,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -7370,7 +7370,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -7378,7 +7378,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -7386,7 +7386,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -7394,7 +7394,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
@@ -7402,7 +7402,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -7410,7 +7410,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -7418,7 +7418,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
@@ -7426,7 +7426,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -7434,7 +7434,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -7442,7 +7442,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
@@ -7450,7 +7450,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -7466,7 +7466,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -7490,7 +7490,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -7498,7 +7498,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
@@ -7514,7 +7514,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
@@ -7522,7 +7522,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
@@ -7530,7 +7530,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
@@ -7538,7 +7538,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
@@ -7546,7 +7546,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28">
@@ -7554,7 +7554,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29">
@@ -7562,7 +7562,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
@@ -7570,7 +7570,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">
@@ -7578,7 +7578,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32">
@@ -7586,7 +7586,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33">
@@ -7594,7 +7594,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -7602,7 +7602,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35">
@@ -7610,7 +7610,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36">
@@ -7618,7 +7618,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37">
@@ -7626,7 +7626,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38">
@@ -7634,7 +7634,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39">
@@ -7650,7 +7650,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41">
@@ -7658,7 +7658,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42">
@@ -7682,7 +7682,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
@@ -7690,7 +7690,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46">
@@ -7698,7 +7698,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47">
@@ -7706,7 +7706,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48">
@@ -7714,7 +7714,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49">
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -7763,7 +7763,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -7771,7 +7771,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -7779,7 +7779,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -7787,7 +7787,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -7795,7 +7795,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
@@ -7803,7 +7803,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
@@ -7811,7 +7811,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
@@ -7819,7 +7819,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -7827,7 +7827,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -7835,7 +7835,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -7843,7 +7843,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
@@ -7851,7 +7851,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
@@ -7859,7 +7859,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -7875,7 +7875,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -7883,7 +7883,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
@@ -7939,7 +7939,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -7947,7 +7947,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27">
@@ -7963,7 +7963,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29">
@@ -7971,7 +7971,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30">
@@ -7987,7 +7987,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32">
@@ -7995,7 +7995,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33">
@@ -8003,7 +8003,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34">
@@ -8011,7 +8011,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35">
@@ -8027,7 +8027,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37">
@@ -8043,7 +8043,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39">
@@ -8067,7 +8067,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42">
@@ -8099,7 +8099,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
@@ -8107,7 +8107,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47">
@@ -8115,7 +8115,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48">
@@ -8123,7 +8123,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49">
@@ -8131,7 +8131,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -8164,7 +8164,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -8172,7 +8172,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -8180,7 +8180,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -8188,7 +8188,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -8196,7 +8196,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
@@ -8204,7 +8204,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -8212,7 +8212,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
@@ -8220,7 +8220,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -8228,7 +8228,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -8236,7 +8236,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -8244,7 +8244,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -8252,7 +8252,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -8260,7 +8260,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -8268,7 +8268,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
@@ -8276,7 +8276,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -8284,7 +8284,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
@@ -8292,7 +8292,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
@@ -8348,7 +8348,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
@@ -8356,7 +8356,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27">
@@ -8380,7 +8380,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
@@ -8388,7 +8388,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31">
@@ -8404,7 +8404,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33">
@@ -8412,7 +8412,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34">
@@ -8420,7 +8420,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35">
@@ -8428,7 +8428,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36">
@@ -8444,7 +8444,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38">
@@ -8460,7 +8460,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40">
@@ -8468,7 +8468,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
@@ -8516,7 +8516,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47">
@@ -8524,7 +8524,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48">
@@ -8532,7 +8532,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49">
@@ -8540,7 +8540,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
